--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9763258252680782</v>
+        <v>0.9773267524167553</v>
       </c>
       <c r="D2">
-        <v>0.7250972696134026</v>
+        <v>0.7149657756623857</v>
       </c>
       <c r="E2">
-        <v>0.6643133728619239</v>
+        <v>0.7208224960399416</v>
       </c>
       <c r="F2">
-        <v>0.9206386502661354</v>
+        <v>0.9216599800514955</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9763258252680782</v>
+        <v>0.9773267524167553</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7243050275998377</v>
+        <v>0.7387495294995581</v>
       </c>
       <c r="E3">
-        <v>0.7036535351843485</v>
+        <v>0.7031693339468537</v>
       </c>
       <c r="F3">
-        <v>0.8933139427078676</v>
+        <v>0.8970997383002497</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7250972696134026</v>
+        <v>0.7149657756623857</v>
       </c>
       <c r="C4">
-        <v>0.7243050275998377</v>
+        <v>0.7387495294995581</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6098072041165761</v>
+        <v>0.6365610379192925</v>
       </c>
       <c r="F4">
-        <v>0.7754944358361293</v>
+        <v>0.7954826854642367</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6643133728619239</v>
+        <v>0.7208224960399416</v>
       </c>
       <c r="C5">
-        <v>0.7036535351843485</v>
+        <v>0.7031693339468537</v>
       </c>
       <c r="D5">
-        <v>0.6098072041165761</v>
+        <v>0.6365610379192925</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5630880181107978</v>
+        <v>0.6218696113266748</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9206386502661354</v>
+        <v>0.9216599800514955</v>
       </c>
       <c r="C6">
-        <v>0.8933139427078676</v>
+        <v>0.8970997383002497</v>
       </c>
       <c r="D6">
-        <v>0.7754944358361293</v>
+        <v>0.7954826854642367</v>
       </c>
       <c r="E6">
-        <v>0.5630880181107978</v>
+        <v>0.6218696113266748</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02969103883254781</v>
+        <v>0.02893258824943891</v>
       </c>
       <c r="D2">
-        <v>-0.3518609696270374</v>
+        <v>-0.3726831629691838</v>
       </c>
       <c r="E2">
-        <v>0.4342349395901197</v>
+        <v>0.364649136154689</v>
       </c>
       <c r="F2">
-        <v>-0.09968180535039661</v>
+        <v>-0.1001311393821628</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.02969103883254781</v>
+        <v>-0.02893258824943891</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.3529181821173292</v>
+        <v>-0.3402093738907146</v>
       </c>
       <c r="E3">
-        <v>0.3806205919424901</v>
+        <v>0.3889435192824905</v>
       </c>
       <c r="F3">
-        <v>-0.1341833608361343</v>
+        <v>-0.1316946066247819</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3518609696270374</v>
+        <v>0.3726831629691838</v>
       </c>
       <c r="C4">
-        <v>0.3529181821173292</v>
+        <v>0.3402093738907146</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5106845905302718</v>
+        <v>0.4830006637928517</v>
       </c>
       <c r="F4">
-        <v>0.2853564234109836</v>
+        <v>0.2641902202458279</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.4342349395901197</v>
+        <v>-0.364649136154689</v>
       </c>
       <c r="C5">
-        <v>-0.3806205919424901</v>
+        <v>-0.3889435192824905</v>
       </c>
       <c r="D5">
-        <v>-0.5106845905302718</v>
+        <v>-0.4830006637928517</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.578663815409828</v>
+        <v>-0.5043356080234241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09968180535039661</v>
+        <v>0.1001311393821628</v>
       </c>
       <c r="C6">
-        <v>0.1341833608361343</v>
+        <v>0.1316946066247819</v>
       </c>
       <c r="D6">
-        <v>-0.2853564234109836</v>
+        <v>-0.2641902202458279</v>
       </c>
       <c r="E6">
-        <v>0.578663815409828</v>
+        <v>0.5043356080234241</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9773267524167553</v>
+        <v>0.2613130196869746</v>
       </c>
       <c r="D2">
-        <v>0.7149657756623857</v>
+        <v>0.6402560799568981</v>
       </c>
       <c r="E2">
-        <v>0.7208224960399416</v>
+        <v>0.5227812452878542</v>
       </c>
       <c r="F2">
-        <v>0.9216599800514955</v>
+        <v>0.735681967364596</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9773267524167553</v>
+        <v>0.2613130196869746</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7387495294995581</v>
+        <v>0.3435934164893428</v>
       </c>
       <c r="E3">
-        <v>0.7031693339468537</v>
+        <v>0.3031103810400146</v>
       </c>
       <c r="F3">
-        <v>0.8970997383002497</v>
+        <v>0.4477033091429998</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7149657756623857</v>
+        <v>0.6402560799568981</v>
       </c>
       <c r="C4">
-        <v>0.7387495294995581</v>
+        <v>0.3435934164893428</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6365610379192925</v>
+        <v>0.6709680194918732</v>
       </c>
       <c r="F4">
-        <v>0.7954826854642367</v>
+        <v>0.9696315248765972</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7208224960399416</v>
+        <v>0.5227812452878542</v>
       </c>
       <c r="C5">
-        <v>0.7031693339468537</v>
+        <v>0.3031103810400146</v>
       </c>
       <c r="D5">
-        <v>0.6365610379192925</v>
+        <v>0.6709680194918732</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6218696113266748</v>
+        <v>0.735532806657571</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9216599800514955</v>
+        <v>0.735681967364596</v>
       </c>
       <c r="C6">
-        <v>0.8970997383002497</v>
+        <v>0.4477033091429998</v>
       </c>
       <c r="D6">
-        <v>0.7954826854642367</v>
+        <v>0.9696315248765972</v>
       </c>
       <c r="E6">
-        <v>0.6218696113266748</v>
+        <v>0.735532806657571</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02893258824943891</v>
+        <v>1.152928994039447</v>
       </c>
       <c r="D2">
-        <v>-0.3726831629691838</v>
+        <v>-0.4738778867042946</v>
       </c>
       <c r="E2">
-        <v>0.364649136154689</v>
+        <v>-0.6494338708923565</v>
       </c>
       <c r="F2">
-        <v>-0.1001311393821628</v>
+        <v>-0.3418847132651095</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.02893258824943891</v>
+        <v>-1.152928994039447</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.3402093738907146</v>
+        <v>-0.9679447635610937</v>
       </c>
       <c r="E3">
-        <v>0.3889435192824905</v>
+        <v>-1.054472134830806</v>
       </c>
       <c r="F3">
-        <v>-0.1316946066247819</v>
+        <v>-0.7730781131966359</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3726831629691838</v>
+        <v>0.4738778867042946</v>
       </c>
       <c r="C4">
-        <v>0.3402093738907146</v>
+        <v>0.9679447635610937</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4830006637928517</v>
+        <v>-0.4305726823580835</v>
       </c>
       <c r="F4">
-        <v>0.2641902202458279</v>
+        <v>0.03850601539107591</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.364649136154689</v>
+        <v>0.6494338708923565</v>
       </c>
       <c r="C5">
-        <v>-0.3889435192824905</v>
+        <v>1.054472134830806</v>
       </c>
       <c r="D5">
-        <v>-0.4830006637928517</v>
+        <v>0.4305726823580835</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.5043356080234241</v>
+        <v>0.3420856818168757</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1001311393821628</v>
+        <v>0.3418847132651095</v>
       </c>
       <c r="C6">
-        <v>0.1316946066247819</v>
+        <v>0.7730781131966359</v>
       </c>
       <c r="D6">
-        <v>-0.2641902202458279</v>
+        <v>-0.03850601539107591</v>
       </c>
       <c r="E6">
-        <v>0.5043356080234241</v>
+        <v>-0.3420856818168757</v>
       </c>
       <c r="F6">
         <v>0</v>
